--- a/indicators/pollinatorIndicators/metadata.xlsx
+++ b/indicators/pollinatorIndicators/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ecRxiv\indicators\pollinatorIndicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EF6D01-079C-4F12-9AC2-BE4C059E9313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE71650-93DD-4EAC-89E9-7E527E062C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="195">
   <si>
     <t>indicatorID</t>
   </si>
@@ -616,10 +616,13 @@
     <t>authors</t>
   </si>
   <si>
-    <t>My Great Indicator</t>
-  </si>
-  <si>
-    <t>Adjei, K. P, Doe, J. , Doe, J.</t>
+    <t>First draft</t>
+  </si>
+  <si>
+    <t>Adjei, K. P, Kolstad, A. , Sydenham, M.</t>
+  </si>
+  <si>
+    <t>Pollinator Indicators</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1068,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1115,7 +1118,9 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1125,7 +1130,9 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1145,7 +1152,9 @@
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1182,7 +1191,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>1901</v>
+        <v>2024</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -1193,7 +1202,9 @@
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>2024</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1227,7 +1238,9 @@
       <c r="A14" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>172</v>
       </c>

--- a/indicators/pollinatorIndicators/metadata.xlsx
+++ b/indicators/pollinatorIndicators/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ecRxiv\indicators\pollinatorIndicators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\41001581_egenutvikling_anders_kolstad\github\ecRxiv_NO_pollinators_REVIEW\indicators\pollinatorIndicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE71650-93DD-4EAC-89E9-7E527E062C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1299C2B9-9BE7-45CB-BC74-A0D97680C816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
+    <workbookView xWindow="16350" yWindow="3705" windowWidth="28800" windowHeight="15375" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="180">
   <si>
     <t>indicatorID</t>
   </si>
@@ -66,15 +66,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>NO_NDVI_001_002</t>
-  </si>
-  <si>
-    <t>NDVI Forest</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -99,12 +90,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>https://doi.org/10.3897/oneeco.6.e58218</t>
-  </si>
-  <si>
-    <t>Current year or year of last update to ecRxiv</t>
-  </si>
-  <si>
     <t>Realm</t>
   </si>
   <si>
@@ -114,15 +99,6 @@
     <t>Ecosystem</t>
   </si>
   <si>
-    <t>https://doi.org/10.2305/IUCN.CH.2020.13.en</t>
-  </si>
-  <si>
-    <t>Terrestrial</t>
-  </si>
-  <si>
-    <t>Year when the documentation was first submitted to ecRxiv</t>
-  </si>
-  <si>
     <t>EFG</t>
   </si>
   <si>
@@ -456,13 +432,6 @@
     <t>TF1.7 Boreal/temperate fens</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Ferrer-Paris, J. R. (2023, November 17). IUCN Global Ecosystem Typology: resources, code and data for mapping global ecosystems. Retrieved from osf.io/68syg. 
-https://doi.org/10.2305/IUCN.CH.2020.13.en</t>
-  </si>
-  <si>
     <t>T1 Tropical-subtropical forests biome</t>
   </si>
   <si>
@@ -544,21 +513,12 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Status or level of completeness for the indicator documentationComplete</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
     <t>Version comment</t>
   </si>
   <si>
-    <t>001.001</t>
-  </si>
-  <si>
-    <t>Examples: First version; first draft; updated with 2024 data; similar to previsou version, but this time for ecosystem Y.</t>
-  </si>
-  <si>
     <t>Terrestrial (T)</t>
   </si>
   <si>
@@ -598,21 +558,9 @@
     <t>deprecated</t>
   </si>
   <si>
-    <t>Doe, J., Normann, K.</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
-    <t>https://github.com/NINAnor/ecRxiv</t>
-  </si>
-  <si>
-    <t>Add the url to the github repo that should be included in the citation</t>
-  </si>
-  <si>
-    <t>Add the authors as they will appear in the citation.</t>
-  </si>
-  <si>
     <t>authors</t>
   </si>
   <si>
@@ -622,7 +570,13 @@
     <t>Adjei, K. P, Kolstad, A. , Sydenham, M.</t>
   </si>
   <si>
-    <t>Pollinator Indicators</t>
+    <t>NO_POPO_001</t>
+  </si>
+  <si>
+    <t>Pollinator potential</t>
+  </si>
+  <si>
+    <t>https://github.com/NINAnor/ecRxiv/tree/main/indicators/NO_POPO</t>
   </si>
 </sst>
 </file>
@@ -681,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -715,19 +669,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -736,17 +677,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1065,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78FF33B-C37D-487F-A5F6-37AB2202A4CF}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,243 +1015,140 @@
     <col min="4" max="4" width="145" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2">
         <v>2024</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2">
         <v>2024</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>189</v>
+        <v>173</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{43A0799D-237F-4ECC-8A5C-DEF79B78D1E3}"/>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{6C189C36-9723-4127-BF04-2179A3906C83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36CDCA7B-840E-422F-A06F-01BCE2D2123C}">
-          <x14:formula1>
-            <xm:f>lookup!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CE43F592-5FB8-438F-A25E-95662C73B5D1}">
-          <x14:formula1>
-            <xm:f>lookup!$D$2:$D$111</xm:f>
-          </x14:formula1>
-          <xm:sqref>B9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF4D43D9-A982-4ECC-8F32-9627C08D5144}">
-          <x14:formula1>
-            <xm:f>lookup!$B$2:$B$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>B7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5BDA4539-C128-4D7B-B5D2-1E23C7E74359}">
-          <x14:formula1>
-            <xm:f>lookup!$C$2:$C$26</xm:f>
-          </x14:formula1>
-          <xm:sqref>B8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EF831FDA-2983-4D36-8B1C-B6481554BCE4}">
-          <x14:formula1>
-            <xm:f>lookup!$E$2:$E$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>B12</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1340,695 +1173,695 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/indicators/pollinatorIndicators/metadata.xlsx
+++ b/indicators/pollinatorIndicators/metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\41001581_egenutvikling_anders_kolstad\github\ecRxiv_NO_pollinators_REVIEW\indicators\pollinatorIndicators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\ecRxiv_NO_pollinators_REVIEW\indicators\pollinatorIndicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1299C2B9-9BE7-45CB-BC74-A0D97680C816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72FA4A6-2127-4218-A4EF-59FD1B1F68EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16350" yWindow="3705" windowWidth="28800" windowHeight="15375" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
